--- a/scripts/ReportTemplate.xlsx
+++ b/scripts/ReportTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yen/NCCU/大四（二）/DBMS/113-2-DBMS-Final-Project/src/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yen/NCCU/大四（二）/DBMS/113-2-DBMS-Final-Project/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679AA0CA-00C9-B946-BCDE-FD8D86136CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CABB7B-6B45-434B-8C42-D3F0D0B6105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Social Interaction" sheetId="3" r:id="rId1"/>
@@ -34,122 +34,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>John Smith</t>
-  </si>
-  <si>
-    <t>VirtualLink VR Headset</t>
   </si>
   <si>
     <t>Emily Johnson</t>
   </si>
   <si>
-    <t>QuantumSync Cloud Storage</t>
-  </si>
-  <si>
     <t>Department</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Manager</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Start Time</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>End Time</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Basic Information</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>學務處</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>吳彥勳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           NCCU SOP Update Summary</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>John Smith</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SOP ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           NCCU SOP Social Interaction Report</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           NCCU New SOP Overview</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SOP NAME</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TIME</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE BY</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>UPDATE BY</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>PROCESS TITLE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>UPDATE TIME</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE COUNT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW COUNT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S000000001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S000000002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total View</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Save</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ACTION</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE BY</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE TIME</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAVE COUNT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIEW COUNT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>S000000001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>S000000002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Save</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -159,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,14 +203,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Lato"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -291,14 +269,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -483,11 +453,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,10 +497,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -543,42 +512,39 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -587,19 +553,19 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,18 +581,17 @@
     <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -741,30 +706,6 @@
         <name val="Archivo"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFDFF"/>
-          <bgColor rgb="FFFAFDFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Archivo"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <fill>
         <patternFill patternType="solid">
@@ -801,30 +742,6 @@
         <patternFill patternType="solid">
           <fgColor theme="5"/>
           <bgColor rgb="FFBBD2FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Archivo"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFDFF"/>
-          <bgColor rgb="FFFAFDFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3059,38 +2976,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{18898FF2-BDFF-E14D-99F8-1703800CB9DE}" name="Table3" displayName="Table3" ref="C15:F17" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{18898FF2-BDFF-E14D-99F8-1703800CB9DE}" name="Table3" displayName="Table3" ref="C15:F17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="C15:F17" xr:uid="{18898FF2-BDFF-E14D-99F8-1703800CB9DE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FC34E7D6-0E9A-6E40-8E8E-D600A105EA24}" name="SOP ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{03AF6771-9D39-5048-AC59-A285025F80F4}" name="SOP NAME" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2126A4A7-A13A-C44F-AC15-1C820B256857}" name="VIEW COUNT" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{20078CB4-56D3-B646-8B0D-B2B8455AD9C8}" name="SAVE COUNT" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{FC34E7D6-0E9A-6E40-8E8E-D600A105EA24}" name="SOP ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{03AF6771-9D39-5048-AC59-A285025F80F4}" name="SOP NAME" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2126A4A7-A13A-C44F-AC15-1C820B256857}" name="VIEW COUNT" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{20078CB4-56D3-B646-8B0D-B2B8455AD9C8}" name="SAVE COUNT" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A27EAFD8-319E-694F-9C7B-C1BDEBF5824B}" name="Table1" displayName="Table1" ref="C9:F11" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="C9:F11" xr:uid="{5F5D2E64-D9E5-6942-8923-8053DFC0D9EC}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7EECDCA2-A94D-E942-AC43-78CB24C4DAFD}" name="SOP ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3B528E00-5F79-7944-B0E8-461FEB230662}" name="SOP NAME" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E5FE3190-EC4E-4D45-A97D-8DF64308C83F}" name="CREATE TIME" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1C74B163-C84C-0644-81AA-57DE073D9573}" name="CREATE BY" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A27EAFD8-319E-694F-9C7B-C1BDEBF5824B}" name="Table1" displayName="Table1" ref="C9:E11" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="C9:E11" xr:uid="{5F5D2E64-D9E5-6942-8923-8053DFC0D9EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7EECDCA2-A94D-E942-AC43-78CB24C4DAFD}" name="SOP ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3B528E00-5F79-7944-B0E8-461FEB230662}" name="SOP NAME" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E5FE3190-EC4E-4D45-A97D-8DF64308C83F}" name="CREATE TIME" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F5D2E64-D9E5-6942-8923-8053DFC0D9EC}" name="Table2" displayName="Table2" ref="C9:H11" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="C9:H11" xr:uid="{5F5D2E64-D9E5-6942-8923-8053DFC0D9EC}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D8CE237D-5805-584E-8F4F-3E780ACCB9F9}" name="SOP ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F2E552D3-80D9-4A45-80D5-EAC19D3ACC31}" name="SOP NAME" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3186E2EB-F493-8C45-8AF2-D82B04FA99D6}" name="PROCESS TITLE" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F5D2E64-D9E5-6942-8923-8053DFC0D9EC}" name="Table2" displayName="Table2" ref="C9:G11" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="C9:G11" xr:uid="{5F5D2E64-D9E5-6942-8923-8053DFC0D9EC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D8CE237D-5805-584E-8F4F-3E780ACCB9F9}" name="SOP ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F2E552D3-80D9-4A45-80D5-EAC19D3ACC31}" name="SOP NAME" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{34198F81-5381-F64F-A27C-8F6F00F3DE46}" name="ACTION" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{8A953CDB-09B3-434D-9BBD-F9E1024607BA}" name="UPDATE TIME" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{39E347DC-7420-EE4C-ACD6-41A163C24714}" name="UPDATE BY" dataDxfId="0"/>
@@ -3302,16 +3217,16 @@
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="32.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="46" customWidth="1"/>
-    <col min="5" max="6" width="41.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="45" customWidth="1"/>
+    <col min="5" max="6" width="41.5" style="45" customWidth="1"/>
     <col min="7" max="10" width="26" customWidth="1"/>
     <col min="11" max="12" width="8.83203125" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
@@ -3364,7 +3279,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
@@ -3409,7 +3324,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="36"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -3421,13 +3336,13 @@
     <row r="8" spans="1:12" ht="32.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="37" t="s">
-        <v>27</v>
+      <c r="C8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -3440,13 +3355,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="38">
+        <v>7</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37">
         <f>SUM(Table3[VIEW COUNT])</f>
         <v>60</v>
       </c>
@@ -3461,12 +3376,12 @@
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -3479,14 +3394,14 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="25">
         <v>45778</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="37" t="s">
-        <v>28</v>
+      <c r="F11" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -3499,13 +3414,13 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="25">
         <v>45787</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <f>SUM(Table3[SAVE COUNT])</f>
         <v>30</v>
       </c>
@@ -3519,8 +3434,8 @@
     <row r="13" spans="1:12" ht="32.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3"/>
       <c r="F13"/>
       <c r="G13" s="3"/>
@@ -3533,10 +3448,10 @@
     <row r="14" spans="1:12" ht="32.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3547,17 +3462,17 @@
     <row r="15" spans="1:12" ht="32.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="33" t="s">
-        <v>13</v>
+      <c r="C15" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3569,16 +3484,16 @@
     <row r="16" spans="1:12" ht="32.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>30</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <v>15</v>
       </c>
       <c r="G16" s="3"/>
@@ -3591,16 +3506,16 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>30</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <v>15</v>
       </c>
       <c r="G17" s="3"/>
@@ -3613,10 +3528,10 @@
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3627,10 +3542,10 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3641,10 +3556,10 @@
     <row r="20" spans="1:12" ht="37.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -3654,10 +3569,10 @@
     </row>
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="B21" s="2"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -3666,10 +3581,10 @@
     </row>
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="B22" s="2"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -3678,10 +3593,10 @@
     </row>
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="B23" s="2"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -3690,10 +3605,10 @@
     </row>
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -3702,10 +3617,10 @@
     </row>
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="B25" s="2"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -3714,10 +3629,10 @@
     </row>
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="B26" s="2"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -3726,10 +3641,10 @@
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1">
       <c r="B27" s="2"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -3738,10 +3653,10 @@
     </row>
     <row r="28" spans="1:12" ht="32.25" customHeight="1">
       <c r="B28" s="2"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -3750,10 +3665,10 @@
     </row>
     <row r="29" spans="1:12" ht="32.25" customHeight="1">
       <c r="B29" s="2"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -3762,10 +3677,10 @@
     </row>
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="B30" s="2"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -3791,7 +3706,7 @@
   <mergeCells count="1">
     <mergeCell ref="C8:D8"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -3808,8 +3723,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="32.25" customHeight="1"/>
@@ -3818,13 +3733,12 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="12.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3832,232 +3746,213 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="19" customHeight="1">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="19" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="47" customHeight="1">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="47" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="F5" s="11"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1">
+      <c r="F8" s="17"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>45780.769201388888</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="32.25" customHeight="1">
+      <c r="F10" s="17"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="45">
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44">
         <v>45793.355138888888</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1">
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.25" customHeight="1">
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1">
+      <c r="F13" s="7"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="37.5" customHeight="1">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="32.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="32.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="32.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="32.25" customHeight="1">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -4072,10 +3967,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="32.25" customHeight="1"/>
@@ -4083,14 +3978,13 @@
     <col min="1" max="2" width="6.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="8" width="26" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="12.5" hidden="1"/>
+    <col min="5" max="7" width="26" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4100,9 +3994,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4111,10 +4004,9 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -4123,24 +4015,22 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="47" customHeight="1">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="47" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="12"/>
@@ -4149,10 +4039,9 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4161,117 +4050,105 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="27"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H8" s="17"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="45">
+        <v>20</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="44">
         <v>45780.769201388888</v>
       </c>
-      <c r="H10" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="32.25" customHeight="1">
+      <c r="G10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="45">
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="44">
         <v>45781.769201331015</v>
       </c>
-      <c r="H11" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1">
+      <c r="G11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -4279,91 +4156,90 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H13" s="7"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="37.5" customHeight="1">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="37.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="32.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="32.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="32.25" customHeight="1">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
@@ -4371,11 +4247,10 @@
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H34" s="29"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="32.25" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
@@ -4383,11 +4258,10 @@
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H35" s="29"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -4395,32 +4269,29 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H36" s="29"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="32.25" customHeight="1">
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="1:10" ht="32.25" customHeight="1">
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" ht="32.25" customHeight="1">
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
